--- a/Rrt_Nawaqis_2025-06-04_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-06-04_00-00.xlsx
@@ -3,14 +3,62 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>صيدليات دكتور مصطفي طلعت</t>
+  </si>
+  <si>
+    <t>نواقص الأصناف</t>
+  </si>
+  <si>
+    <t>في الفترة من</t>
+  </si>
+  <si>
+    <t>الى</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>الرصيد الحالي</t>
+  </si>
+  <si>
+    <t>حد الطلب</t>
+  </si>
+  <si>
+    <t>السعر</t>
+  </si>
+  <si>
+    <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>Thursday, 5 June, 2025 12:22 AM</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>developed by : Abdelaziz Talaat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18,19 +66,154 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC04000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0616D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0616D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0616D"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -39,8 +222,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,8 +544,155 @@
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.43" customWidth="1"/>
+    <col min="2" max="2" width="20.29" customWidth="1"/>
+    <col min="3" max="3" width="1.57" customWidth="1"/>
+    <col min="4" max="4" width="12.71" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="13.29" customWidth="1"/>
+    <col min="7" max="7" width="0.43" customWidth="1"/>
+    <col min="8" max="8" width="1.14" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="6.71" customWidth="1"/>
+    <col min="11" max="11" width="9.71" customWidth="1"/>
+    <col min="12" max="12" width="10.43" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="7.5" customHeight="1"/>
+    <row r="2" ht="34.5" customHeight="1">
+      <c t="s" r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="35.25" customHeight="1">
+      <c t="s" r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c t="s" r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45812</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c t="s" r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
+        <v>45812</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="0.75" customHeight="1"/>
+    <row r="6" ht="25.5" customHeight="1">
+      <c t="s" r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c t="s" r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c t="s" r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c t="s" r="K6" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="M6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1">
+      <c t="s" r="A8" s="12">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c t="s" r="F8" s="13">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c t="s" r="I8" s="15">
+        <v>12</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>